--- a/python-pandas-time-series-demo-solution.xlsx
+++ b/python-pandas-time-series-demo-solution.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF6B79B-3309-4BF8-B59C-0E6923CB75B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06724645-3EFB-4DEE-94E2-AF3C8FB08FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{7C366330-BFF8-4C11-BB89-F39671537E39}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{7C366330-BFF8-4C11-BB89-F39671537E39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="parse-dates" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +36,87 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code xml:space="preserve">pd.to_datetime(xl(%P2%))
+</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
+<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
+<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
+  <pythonScript>
+    <code xml:space="preserve">pd.to_datetime(xl(%P2%))
+</code>
+  </pythonScript>
+</pythonScripts>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t># Create a month column
 seattle['month'] = seattle['date'].dt.month
 seattle['month'].head()</t>
+  </si>
+  <si>
+    <t>05th Feb, 2020</t>
   </si>
 </sst>
 </file>
@@ -97,6 +173,94 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <fb>43866</fb>
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="1">
+    <spb s="0">
+      <v>1</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+  </dxfs>
+  <richStyles>
+    <rSty dxfid="0"/>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,6 +579,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776E7662-D6F6-4F4A-B3DB-5D70A92B9821}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.0703125" defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="1" max="1" width="12.9609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" cm="1" vm="1">
+        <f t="array" ref="B1">_xlfn._xlws.PY(0,0,A1)</f>
+        <v>43866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7508D272-68A0-449B-9547-0BB3B104D5AB}">
   <dimension ref="A2:C4"/>
   <sheetViews>
